--- a/Files/destination.xlsx
+++ b/Files/destination.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Vituare-Research/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Virtua Search/Excel Python Integration/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F5E7544313639EFFE20CC05659569E3960F4402C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0658F34A-578B-47AE-A66A-D5F046872C10}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_D5FA724B506B02FE6B26D07553956EFCF9BD3A86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6350B6-80C8-43A0-87E8-8E3F4A6CF9D6}"/>
   <bookViews>
-    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19406" windowHeight="11486" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -59,16 +59,13 @@
     <t>Jane</t>
   </si>
   <si>
+    <t>Jack</t>
+  </si>
+  <si>
     <t>Poor</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>Excellent</t>
-  </si>
-  <si>
-    <t>Sam</t>
   </si>
 </sst>
 </file>
@@ -120,8 +117,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -136,6 +133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,15 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="6" width="13" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="5.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -476,7 +478,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -490,92 +492,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>33</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>50000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <f>IF(D2 = "Excellent", C2 * 0.12, IF(D2 = "Good", C2 * 0.1, IF(D2 = "Average", C2 * 0.08, IF(D2 = "Below Average", C2 * 0.05, IF(D2 = "Poor", C2 * 0.02, 0)))))</f>
+      <c r="E2" s="1">
+        <f>IF(D2="Excellent", C2 * 0.12, IF(D2="Good", C2 * 0.1, IF(D2="Average", C2 * 0.07, IF(D2="Below Average", C2 * 0.05, C2 * 0.01))))</f>
         <v>6000</v>
       </c>
-      <c r="F2" s="2">
-        <f>(C2 + E2) * 0.1</f>
+      <c r="F2" s="1">
+        <f>(C2+E2)*0.1</f>
         <v>5600</v>
       </c>
-      <c r="G2" s="2">
-        <f>C2 + E2 - F2</f>
+      <c r="G2" s="1">
+        <f>C2+E2-F2</f>
         <v>50400</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1">
+        <v>150000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2">
-        <f>IF(D3 = "Excellent", C3 * 0.12, IF(D3 = "Good", C3 * 0.1, IF(D3 = "Average", C3 * 0.08, IF(D3 = "Below Average", C3 * 0.05, IF(D3 = "Poor", C3 * 0.02, 0)))))</f>
-        <v>18000</v>
-      </c>
-      <c r="F3" s="2">
-        <f>(C3 + E3) * 0.1</f>
-        <v>16800</v>
-      </c>
-      <c r="G3" s="2">
-        <f>C3 + E3 - F3</f>
-        <v>151200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <f>IF(D4 = "Excellent", C4 * 0.12, IF(D4 = "Good", C4 * 0.1, IF(D4 = "Average", C4 * 0.08, IF(D4 = "Below Average", C4 * 0.05, IF(D4 = "Poor", C4 * 0.02, 0)))))</f>
-        <v>4000</v>
-      </c>
-      <c r="F4" s="2">
-        <f>(C4 + E4) * 0.1</f>
-        <v>20400</v>
-      </c>
-      <c r="G4" s="2">
-        <f>C4 + E4 - F4</f>
-        <v>183600</v>
+      <c r="E3" s="1">
+        <f>IF(D3="Excellent", C3 * 0.12, IF(D3="Good", C3 * 0.1, IF(D3="Average", C3 * 0.07, IF(D2="Below Average", C3 * 0.05, C3 * 0.01))))</f>
+        <v>1500</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(C3+E3)*0.1</f>
+        <v>15150</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C3+E3-F3</f>
+        <v>136350</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="83AF" sheet="1"/>
-  <conditionalFormatting sqref="A2:G4">
+  <conditionalFormatting sqref="A2:G3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D2 = "Poor"</formula>
+      <formula>$D2="Poor"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" error="Invalid rating. Please select from the list." prompt="Select a rating" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" error="Select from the list" promptTitle="Rating" prompt="Choose a performance rating" sqref="D2:D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Excellent,Good,Average,Below Average,Poor"</formula1>
     </dataValidation>
   </dataValidations>
